--- a/TeamData/2022-23/10-20-2022-23.xlsx
+++ b/TeamData/2022-23/10-20-2022-23.xlsx
@@ -981,7 +981,7 @@
         <v>3</v>
       </c>
       <c r="Z3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
         <v>25</v>
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
         <v>5</v>
@@ -1790,7 +1790,7 @@
         <v>11</v>
       </c>
       <c r="BA7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -2258,7 +2258,7 @@
         <v>21</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB10" t="n">
         <v>113</v>
@@ -2336,7 +2336,7 @@
         <v>11</v>
       </c>
       <c r="BA10" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BB10" t="n">
         <v>12</v>
@@ -3061,7 +3061,7 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
         <v>8</v>
@@ -3246,7 +3246,7 @@
         <v>11</v>
       </c>
       <c r="BA15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB15" t="n">
         <v>25</v>
@@ -3607,7 +3607,7 @@
         <v>24</v>
       </c>
       <c r="AZ17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA17" t="n">
         <v>2</v>
@@ -4621,7 +4621,7 @@
         <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA23" t="n">
         <v>21</v>
@@ -4699,7 +4699,7 @@
         <v>7</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BA23" t="n">
         <v>15</v>
@@ -4806,7 +4806,7 @@
         <v>19.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB24" t="n">
         <v>102.5</v>
@@ -4884,7 +4884,7 @@
         <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BB24" t="n">
         <v>27</v>
@@ -5976,7 +5976,7 @@
         <v>11</v>
       </c>
       <c r="BA30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB30" t="n">
         <v>4</v>
